--- a/tags.xlsx
+++ b/tags.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Number</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>NewTag</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -608,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -709,6 +721,9 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -720,6 +735,9 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -731,6 +749,9 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -764,6 +785,9 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -775,6 +799,9 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -786,6 +813,9 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -798,7 +828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -809,7 +839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -820,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -831,7 +861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -842,7 +872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -852,8 +882,11 @@
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -863,8 +896,11 @@
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -874,8 +910,11 @@
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -886,7 +925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -897,7 +936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -908,7 +947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -919,7 +958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -929,8 +968,11 @@
       <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -940,8 +982,11 @@
       <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -951,8 +996,11 @@
       <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -962,8 +1010,11 @@
       <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -973,8 +1024,11 @@
       <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -984,8 +1038,11 @@
       <c r="C33" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -996,7 +1053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1007,7 +1064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1018,7 +1075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
